--- a/v0.7/StructureDefinition-CoverageEligibilityRequestDocument.xlsx
+++ b/v0.7/StructureDefinition-CoverageEligibilityRequestDocument.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hcx-project.github.io/hcx-specs/v0.7/StructureDefinition-CoverageEligibilityRequestDocument.html</t>
+    <t>https://ig.hcxprotocol.io/v0.7/StructureDefinition-CoverageEligibilityRequestDocument.html</t>
   </si>
   <si>
     <t>Version</t>
@@ -1264,7 +1264,7 @@
     <t>Composition.section.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hcx-project.github.io/hcx-specs/v0.7/StructureDefinition-CoverageEligibilityRequest.html)
+    <t xml:space="preserve">Reference(https://ig.hcxprotocol.io/v0.7/StructureDefinition-CoverageEligibilityRequest.html)
 </t>
   </si>
   <si>

--- a/v0.7/StructureDefinition-CoverageEligibilityRequestDocument.xlsx
+++ b/v0.7/StructureDefinition-CoverageEligibilityRequestDocument.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -548,10 +548,10 @@
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
   </si>
   <si>
-    <t>Type of a composition. TODO - Value set of all HCX objects.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
+    <t>Type of a composition</t>
+  </si>
+  <si>
+    <t>https://ig.hcxprotocol.io/v0.7/ValueSet-hcx-document-type-codes.html</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1159,12 +1159,7 @@
     <t>Provides computable standardized labels to topics within the document.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;text value="CoverageEligibilityRequest"/&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>TODO - value set listing all HCX eObjects including CoverageEligibilityRequest for this one.</t>
+    <t>Classification of a section of a composition/document.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
@@ -1652,7 +1647,7 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="82.265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.28125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.52734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
@@ -6977,31 +6972,31 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="R47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="X47" t="s" s="2">
+      <c r="Y47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>75</v>
@@ -7051,7 +7046,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7077,10 +7072,10 @@
         <v>222</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -7133,7 +7128,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7165,7 +7160,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7191,13 +7186,13 @@
         <v>191</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7247,7 +7242,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7268,7 +7263,7 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7279,7 +7274,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7305,13 +7300,13 @@
         <v>116</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7361,7 +7356,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7370,7 +7365,7 @@
         <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>98</v>
@@ -7379,10 +7374,10 @@
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7393,7 +7388,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7419,16 +7414,16 @@
         <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>75</v>
@@ -7456,11 +7451,11 @@
         <v>158</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7477,7 +7472,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7495,7 +7490,7 @@
         <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>163</v>
@@ -7509,7 +7504,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7535,16 +7530,16 @@
         <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -7572,11 +7567,11 @@
         <v>110</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7593,7 +7588,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7611,7 +7606,7 @@
         <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>163</v>
@@ -7625,7 +7620,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7633,10 +7628,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>75</v>
@@ -7648,16 +7643,16 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7707,7 +7702,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7716,7 +7711,7 @@
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
@@ -7725,10 +7720,10 @@
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>75</v>
@@ -7739,7 +7734,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7765,16 +7760,16 @@
         <v>167</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>75</v>
@@ -7802,11 +7797,11 @@
         <v>110</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7823,7 +7818,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7832,7 +7827,7 @@
         <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>98</v>
@@ -7841,7 +7836,7 @@
         <v>75</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>163</v>
@@ -7855,7 +7850,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7881,13 +7876,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7937,7 +7932,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7946,7 +7941,7 @@
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
@@ -7958,7 +7953,7 @@
         <v>355</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>

--- a/v0.7/StructureDefinition-CoverageEligibilityRequestDocument.xlsx
+++ b/v0.7/StructureDefinition-CoverageEligibilityRequestDocument.xlsx
@@ -255,10 +255,6 @@
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -278,458 +274,462 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Composition.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Composition.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Composition.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Composition.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Composition.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Composition.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Composition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Version-independent identifier for the Composition</t>
+  </si>
+  <si>
+    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
+  </si>
+  <si>
+    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Document.id / Document.setId</t>
+  </si>
+  <si>
+    <t>.setId</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Composition.status</t>
+  </si>
+  <si>
+    <t>preliminary | final | amended | entered-in-error</t>
+  </si>
+  <si>
+    <t>The workflow/clinical status of this composition. The status is a marker for the clinical standing of the document.</t>
+  </si>
+  <si>
+    <t>If a composition is marked as withdrawn, the compositions/documents in the series, or data from the composition or document series, should never be displayed to a user without being clearly marked as untrustworthy. The flag "entered-in-error" is why this element is labeled as a modifier of other elements.   
+Some reporting work flows require that the original narrative of a final document never be altered; instead, only new narrative can be added. The composition resource has no explicit status for explicitly noting whether this business rule is in effect. This would be handled by an extension if required.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark interim, amended, or withdrawn compositions or documents.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The workflow/clinical status of the composition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Composition.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Kind of composition (LOINC if possible)</t>
+  </si>
+  <si>
+    <t>Specifies the particular kind of composition (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the composition.</t>
+  </si>
+  <si>
+    <t>For Composition type, LOINC is ubiquitous and strongly endorsed by HL7. Most implementation guides will require a specific LOINC code, or use LOINC as an extensible binding.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the composition, used in searching/filtering.</t>
+  </si>
+  <si>
+    <t>Type of a composition</t>
+  </si>
+  <si>
+    <t>https://ig.hcxprotocol.io/v0.7/ValueSet-hcx-document-type-codes.html</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>DocumentReference.type</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Composition.category</t>
+  </si>
+  <si>
+    <t>Categorization of Composition</t>
+  </si>
+  <si>
+    <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
+  </si>
+  <si>
+    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
+  </si>
+  <si>
+    <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>DocumenttReference.category</t>
+  </si>
+  <si>
+    <t>Composition.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the composition is about</t>
+  </si>
+  <si>
+    <t>Who or what the composition is about. The composition can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of livestock, or a set of patients that share a common exposure).</t>
+  </si>
+  <si>
+    <t>For clinical documents, this is usually the patient.</t>
+  </si>
+  <si>
+    <t>Essential metadata for searching for the composition. Identifies who and/or what the composition/document is about.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
+  </si>
+  <si>
+    <t>.recordTarget</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Composition.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Context of the Composition</t>
+  </si>
+  <si>
+    <t>Describes the clinical encounter or type of care this documentation is associated with.</t>
+  </si>
+  <si>
+    <t>Provides context for the composition and supports searching.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>unique(highest(./outboundRelationship[typeCode="SUBJ" and isNormalActRelationship()], priorityNumber)/target[moodCode="EVN" and classCode=("ENC", "PCPR") and isNormalAct])</t>
+  </si>
+  <si>
+    <t>.componentOf.encompassingEncounter</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.encounter</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Composition.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Composition editing time</t>
+  </si>
+  <si>
+    <t>The composition editing time, when the composition was last logically changed by the author.</t>
+  </si>
+  <si>
+    <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
+  </si>
+  <si>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime[type="TS"]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.date, DocumentReference.created</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Composition.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the composition</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the content.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>.author.assignedAuthor</t>
+  </si>
+  <si>
+    <t>DocumentReference.agent</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>Composition.title</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Composition.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Composition.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Composition.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Composition.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Composition.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Composition.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Composition.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Version-independent identifier for the Composition</t>
-  </si>
-  <si>
-    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
-  </si>
-  <si>
-    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Document.id / Document.setId</t>
-  </si>
-  <si>
-    <t>.setId</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Composition.status</t>
-  </si>
-  <si>
-    <t>preliminary | final | amended | entered-in-error</t>
-  </si>
-  <si>
-    <t>The workflow/clinical status of this composition. The status is a marker for the clinical standing of the document.</t>
-  </si>
-  <si>
-    <t>If a composition is marked as withdrawn, the compositions/documents in the series, or data from the composition or document series, should never be displayed to a user without being clearly marked as untrustworthy. The flag "entered-in-error" is why this element is labeled as a modifier of other elements.   
-Some reporting work flows require that the original narrative of a final document never be altered; instead, only new narrative can be added. The composition resource has no explicit status for explicitly noting whether this business rule is in effect. This would be handled by an extension if required.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark interim, amended, or withdrawn compositions or documents.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The workflow/clinical status of the composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DocumentReference.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Composition.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Kind of composition (LOINC if possible)</t>
-  </si>
-  <si>
-    <t>Specifies the particular kind of composition (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the composition.</t>
-  </si>
-  <si>
-    <t>For Composition type, LOINC is ubiquitous and strongly endorsed by HL7. Most implementation guides will require a specific LOINC code, or use LOINC as an extensible binding.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the composition, used in searching/filtering.</t>
-  </si>
-  <si>
-    <t>Type of a composition</t>
-  </si>
-  <si>
-    <t>https://ig.hcxprotocol.io/v0.7/ValueSet-hcx-document-type-codes.html</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>DocumentReference.type</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Composition.category</t>
-  </si>
-  <si>
-    <t>Categorization of Composition</t>
-  </si>
-  <si>
-    <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
-  </si>
-  <si>
-    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
-  </si>
-  <si>
-    <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>DocumenttReference.category</t>
-  </si>
-  <si>
-    <t>Composition.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the composition is about</t>
-  </si>
-  <si>
-    <t>Who or what the composition is about. The composition can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of livestock, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>For clinical documents, this is usually the patient.</t>
-  </si>
-  <si>
-    <t>Essential metadata for searching for the composition. Identifies who and/or what the composition/document is about.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
-  </si>
-  <si>
-    <t>.recordTarget</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Composition.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Context of the Composition</t>
-  </si>
-  <si>
-    <t>Describes the clinical encounter or type of care this documentation is associated with.</t>
-  </si>
-  <si>
-    <t>Provides context for the composition and supports searching.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>unique(highest(./outboundRelationship[typeCode="SUBJ" and isNormalActRelationship()], priorityNumber)/target[moodCode="EVN" and classCode=("ENC", "PCPR") and isNormalAct])</t>
-  </si>
-  <si>
-    <t>.componentOf.encompassingEncounter</t>
-  </si>
-  <si>
-    <t>DocumentReference.context.encounter</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Composition.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Composition editing time</t>
-  </si>
-  <si>
-    <t>The composition editing time, when the composition was last logically changed by the author.</t>
-  </si>
-  <si>
-    <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
-  </si>
-  <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime[type="TS"]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.attachment.date, DocumentReference.created</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Composition.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what authored the composition</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the content.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>.author.assignedAuthor</t>
-  </si>
-  <si>
-    <t>DocumentReference.agent</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>Composition.title</t>
   </si>
   <si>
     <t>Human Readable name/title</t>
@@ -1624,15 +1624,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="37.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="84.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1643,27 +1643,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.28125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.52734375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.28515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.53125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.69140625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="57.25" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="70.45703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.25390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="70.4609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1884,19 +1884,19 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>75</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1915,28 +1915,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1986,13 +1986,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2029,25 +2029,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2098,19 +2098,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2141,28 +2141,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2212,19 +2212,19 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2255,7 +2255,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -2267,16 +2267,16 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2302,43 +2302,43 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
@@ -2358,18 +2358,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -2381,16 +2381,16 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2440,25 +2440,25 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>75</v>
@@ -2472,11 +2472,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2495,16 +2495,16 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2554,7 +2554,7 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2572,7 +2572,7 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>75</v>
@@ -2586,11 +2586,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2609,16 +2609,16 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2668,7 +2668,7 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2680,13 +2680,13 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -2700,11 +2700,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2717,25 +2717,25 @@
         <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>75</v>
@@ -2784,7 +2784,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2796,13 +2796,13 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2827,28 +2827,28 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2898,39 +2898,39 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2938,34 +2938,34 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="I12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
@@ -2990,63 +2990,63 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3054,34 +3054,34 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>75</v>
@@ -3106,63 +3106,63 @@
         <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3182,22 +3182,22 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -3222,14 +3222,14 @@
         <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>75</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3258,27 +3258,27 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AN14" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3289,31 +3289,31 @@
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>75</v>
@@ -3362,39 +3362,39 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3405,29 +3405,29 @@
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>75</v>
@@ -3476,39 +3476,39 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3516,34 +3516,34 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>75</v>
@@ -3592,39 +3592,39 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>77</v>
@@ -3644,20 +3644,20 @@
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>75</v>
@@ -3706,10 +3706,10 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3718,27 +3718,27 @@
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3746,22 +3746,22 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>232</v>
@@ -3820,19 +3820,19 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
@@ -3863,19 +3863,19 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>239</v>
@@ -3910,7 +3910,7 @@
         <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>242</v>
@@ -3940,13 +3940,13 @@
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -4062,7 +4062,7 @@
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>75</v>
@@ -4093,7 +4093,7 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>75</v>
@@ -4105,7 +4105,7 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>256</v>
@@ -4168,7 +4168,7 @@
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>75</v>
@@ -4180,7 +4180,7 @@
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4217,16 +4217,16 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>260</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4288,13 +4288,13 @@
         <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4325,13 +4325,13 @@
         <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>264</v>
@@ -4340,10 +4340,10 @@
         <v>265</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>75</v>
@@ -4404,13 +4404,13 @@
         <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4432,10 +4432,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>75</v>
@@ -4447,7 +4447,7 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>268</v>
@@ -4482,7 +4482,7 @@
         <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>271</v>
@@ -4509,16 +4509,16 @@
         <v>267</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>75</v>
@@ -4549,7 +4549,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>75</v>
@@ -4561,7 +4561,7 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>276</v>
@@ -4626,13 +4626,13 @@
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
@@ -4663,7 +4663,7 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>75</v>
@@ -4740,13 +4740,13 @@
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
@@ -4777,16 +4777,16 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>290</v>
@@ -4856,13 +4856,13 @@
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>75</v>
@@ -4976,7 +4976,7 @@
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>75</v>
@@ -5007,7 +5007,7 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>75</v>
@@ -5019,7 +5019,7 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>256</v>
@@ -5082,7 +5082,7 @@
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>75</v>
@@ -5094,7 +5094,7 @@
         <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5131,16 +5131,16 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5202,13 +5202,13 @@
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -5239,13 +5239,13 @@
         <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>264</v>
@@ -5254,10 +5254,10 @@
         <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>75</v>
@@ -5318,13 +5318,13 @@
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -5346,10 +5346,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>75</v>
@@ -5361,7 +5361,7 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>309</v>
@@ -5396,7 +5396,7 @@
         <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>312</v>
@@ -5423,16 +5423,16 @@
         <v>308</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
@@ -5460,10 +5460,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>75</v>
@@ -5535,16 +5535,16 @@
         <v>317</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>75</v>
@@ -5584,7 +5584,7 @@
         <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>247</v>
@@ -5660,7 +5660,7 @@
         <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>75</v>
@@ -5691,7 +5691,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>75</v>
@@ -5703,7 +5703,7 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>256</v>
@@ -5766,7 +5766,7 @@
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
@@ -5778,7 +5778,7 @@
         <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5815,16 +5815,16 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5886,13 +5886,13 @@
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5923,13 +5923,13 @@
         <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>264</v>
@@ -5938,10 +5938,10 @@
         <v>265</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>75</v>
@@ -6002,13 +6002,13 @@
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -6042,10 +6042,10 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>336</v>
@@ -6080,7 +6080,7 @@
         <v>75</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>339</v>
@@ -6116,16 +6116,16 @@
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>341</v>
@@ -6147,16 +6147,16 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>343</v>
@@ -6222,22 +6222,22 @@
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>346</v>
@@ -6268,10 +6268,10 @@
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>348</v>
@@ -6340,7 +6340,7 @@
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>75</v>
@@ -6349,7 +6349,7 @@
         <v>350</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>75</v>
@@ -6368,10 +6368,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>75</v>
@@ -6483,7 +6483,7 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>75</v>
@@ -6495,7 +6495,7 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>256</v>
@@ -6558,7 +6558,7 @@
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
@@ -6570,7 +6570,7 @@
         <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6607,16 +6607,16 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>260</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6678,13 +6678,13 @@
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6715,13 +6715,13 @@
         <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>264</v>
@@ -6730,10 +6730,10 @@
         <v>265</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>75</v>
@@ -6794,13 +6794,13 @@
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6825,7 +6825,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>75</v>
@@ -6837,7 +6837,7 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>362</v>
@@ -6904,13 +6904,13 @@
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>75</v>
@@ -6941,7 +6941,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -6953,7 +6953,7 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>367</v>
@@ -6990,7 +6990,7 @@
         <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>371</v>
@@ -7020,22 +7020,22 @@
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>75</v>
@@ -7069,7 +7069,7 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>374</v>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>75</v>
@@ -7140,22 +7140,22 @@
         <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49">
@@ -7171,7 +7171,7 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>75</v>
@@ -7183,7 +7183,7 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>377</v>
@@ -7248,13 +7248,13 @@
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -7285,7 +7285,7 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>75</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>382</v>
@@ -7362,13 +7362,13 @@
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>385</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>75</v>
@@ -7399,7 +7399,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>75</v>
@@ -7411,7 +7411,7 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>388</v>
@@ -7448,7 +7448,7 @@
         <v>75</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>392</v>
@@ -7478,13 +7478,13 @@
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
@@ -7493,13 +7493,13 @@
         <v>394</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52">
@@ -7515,7 +7515,7 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>75</v>
@@ -7527,7 +7527,7 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>396</v>
@@ -7564,7 +7564,7 @@
         <v>75</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>400</v>
@@ -7594,13 +7594,13 @@
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -7609,7 +7609,7 @@
         <v>402</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>75</v>
@@ -7628,10 +7628,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>75</v>
@@ -7714,7 +7714,7 @@
         <v>408</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>75</v>
@@ -7745,7 +7745,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>75</v>
@@ -7757,7 +7757,7 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>412</v>
@@ -7794,7 +7794,7 @@
         <v>75</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X54" t="s" s="2">
         <v>416</v>
@@ -7824,13 +7824,13 @@
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>408</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>75</v>
@@ -7839,7 +7839,7 @@
         <v>418</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
@@ -7944,7 +7944,7 @@
         <v>385</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>

--- a/v0.7/StructureDefinition-CoverageEligibilityRequestDocument.xlsx
+++ b/v0.7/StructureDefinition-CoverageEligibilityRequestDocument.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="425">
   <si>
     <t>Property</t>
   </si>
@@ -544,10 +544,10 @@
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
   </si>
   <si>
-    <t>Type of a composition</t>
-  </si>
-  <si>
-    <t>https://ig.hcxprotocol.io/v0.7/ValueSet-hcx-document-type-codes.html</t>
+    <t>Type of a composition. TODO - Value set of all HCX objects.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1159,7 +1159,12 @@
     <t>Provides computable standardized labels to topics within the document.</t>
   </si>
   <si>
-    <t>Classification of a section of a composition/document.</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;text value="CoverageEligibilityRequest"/&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>TODO - value set listing all HCX eObjects including CoverageEligibilityRequest for this one.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
@@ -1647,7 +1652,7 @@
     <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.28515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="82.265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.53125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
@@ -6972,7 +6977,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>75</v>
@@ -6990,13 +6995,13 @@
         <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>75</v>
@@ -7046,7 +7051,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7072,10 +7077,10 @@
         <v>221</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -7128,7 +7133,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7160,7 +7165,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7186,13 +7191,13 @@
         <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7242,7 +7247,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7263,7 +7268,7 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7274,7 +7279,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7300,13 +7305,13 @@
         <v>115</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7356,7 +7361,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7365,7 +7370,7 @@
         <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>97</v>
@@ -7374,10 +7379,10 @@
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7388,7 +7393,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7414,16 +7419,16 @@
         <v>105</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>75</v>
@@ -7451,10 +7456,10 @@
         <v>157</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>75</v>
@@ -7472,7 +7477,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7490,7 +7495,7 @@
         <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>162</v>
@@ -7504,7 +7509,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7530,16 +7535,16 @@
         <v>166</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -7567,10 +7572,10 @@
         <v>109</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>75</v>
@@ -7588,7 +7593,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7606,7 +7611,7 @@
         <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>162</v>
@@ -7620,7 +7625,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7628,10 +7633,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>75</v>
@@ -7643,16 +7648,16 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7702,7 +7707,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7711,7 +7716,7 @@
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>97</v>
@@ -7720,10 +7725,10 @@
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>75</v>
@@ -7734,7 +7739,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7760,16 +7765,16 @@
         <v>166</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>75</v>
@@ -7797,10 +7802,10 @@
         <v>109</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>75</v>
@@ -7818,7 +7823,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7827,7 +7832,7 @@
         <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>97</v>
@@ -7836,7 +7841,7 @@
         <v>75</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>162</v>
@@ -7850,7 +7855,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7876,13 +7881,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7932,7 +7937,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7941,7 +7946,7 @@
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>97</v>
@@ -7953,7 +7958,7 @@
         <v>355</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
